--- a/output/GNER/LLaMA-3B-KGC3/eval-performances-lv3.xlsx
+++ b/output/GNER/LLaMA-3B-KGC3/eval-performances-lv3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1573,6 +1573,2182 @@
         <v>36.20703125</v>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>1.0295</v>
+      </c>
+      <c r="B36" t="n">
+        <v>61.77438290813973</v>
+      </c>
+      <c r="C36" t="n">
+        <v>61.78800452159108</v>
+      </c>
+      <c r="D36" t="n">
+        <v>61.59887797538111</v>
+      </c>
+      <c r="E36" t="n">
+        <v>73.30742482625625</v>
+      </c>
+      <c r="F36" t="n">
+        <v>62.63960987387297</v>
+      </c>
+      <c r="G36" t="n">
+        <v>66.68228678037644</v>
+      </c>
+      <c r="H36" t="n">
+        <v>64.40961337019628</v>
+      </c>
+      <c r="I36" t="n">
+        <v>41.99486300930396</v>
+      </c>
+      <c r="J36" t="n">
+        <v>36.20703125</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>1.0598</v>
+      </c>
+      <c r="B37" t="n">
+        <v>60.82090407417774</v>
+      </c>
+      <c r="C37" t="n">
+        <v>59.96896818740449</v>
+      </c>
+      <c r="D37" t="n">
+        <v>63.77885436949408</v>
+      </c>
+      <c r="E37" t="n">
+        <v>71.82982238244946</v>
+      </c>
+      <c r="F37" t="n">
+        <v>67.3617693472906</v>
+      </c>
+      <c r="G37" t="n">
+        <v>67.01520912047293</v>
+      </c>
+      <c r="H37" t="n">
+        <v>60.53889612724338</v>
+      </c>
+      <c r="I37" t="n">
+        <v>35.25280898488919</v>
+      </c>
+      <c r="J37" t="n">
+        <v>36.20703125</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>1.0901</v>
+      </c>
+      <c r="B38" t="n">
+        <v>63.36527630541406</v>
+      </c>
+      <c r="C38" t="n">
+        <v>63.81554480719325</v>
+      </c>
+      <c r="D38" t="n">
+        <v>65.28787031362766</v>
+      </c>
+      <c r="E38" t="n">
+        <v>76.14546948339516</v>
+      </c>
+      <c r="F38" t="n">
+        <v>66.90524349896566</v>
+      </c>
+      <c r="G38" t="n">
+        <v>70.99325424017037</v>
+      </c>
+      <c r="H38" t="n">
+        <v>63.45596910376027</v>
+      </c>
+      <c r="I38" t="n">
+        <v>36.9535826907861</v>
+      </c>
+      <c r="J38" t="n">
+        <v>36.20703125</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>1.1204</v>
+      </c>
+      <c r="B39" t="n">
+        <v>59.52269042147594</v>
+      </c>
+      <c r="C39" t="n">
+        <v>59.05891070266514</v>
+      </c>
+      <c r="D39" t="n">
+        <v>58.11870100285411</v>
+      </c>
+      <c r="E39" t="n">
+        <v>70.28243961841659</v>
+      </c>
+      <c r="F39" t="n">
+        <v>60.24797183029654</v>
+      </c>
+      <c r="G39" t="n">
+        <v>61.82408911080186</v>
+      </c>
+      <c r="H39" t="n">
+        <v>66.51304074085279</v>
+      </c>
+      <c r="I39" t="n">
+        <v>40.61367994444454</v>
+      </c>
+      <c r="J39" t="n">
+        <v>36.20703125</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>1.1506</v>
+      </c>
+      <c r="B40" t="n">
+        <v>60.14761534467256</v>
+      </c>
+      <c r="C40" t="n">
+        <v>57.06997084047794</v>
+      </c>
+      <c r="D40" t="n">
+        <v>61.77215189375255</v>
+      </c>
+      <c r="E40" t="n">
+        <v>71.68488347613578</v>
+      </c>
+      <c r="F40" t="n">
+        <v>57.01357465563201</v>
+      </c>
+      <c r="G40" t="n">
+        <v>65.75217192001169</v>
+      </c>
+      <c r="H40" t="n">
+        <v>67.51956015579228</v>
+      </c>
+      <c r="I40" t="n">
+        <v>40.2209944709057</v>
+      </c>
+      <c r="J40" t="n">
+        <v>36.20703125</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>1.1809</v>
+      </c>
+      <c r="B41" t="n">
+        <v>59.4970355373859</v>
+      </c>
+      <c r="C41" t="n">
+        <v>58.03108807789725</v>
+      </c>
+      <c r="D41" t="n">
+        <v>58.8626907023608</v>
+      </c>
+      <c r="E41" t="n">
+        <v>70.75975358843307</v>
+      </c>
+      <c r="F41" t="n">
+        <v>58.9541878709816</v>
+      </c>
+      <c r="G41" t="n">
+        <v>63.44922231887949</v>
+      </c>
+      <c r="H41" t="n">
+        <v>65.83368332140549</v>
+      </c>
+      <c r="I41" t="n">
+        <v>40.58862288174358</v>
+      </c>
+      <c r="J41" t="n">
+        <v>36.20703125</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>1.2112</v>
+      </c>
+      <c r="B42" t="n">
+        <v>59.83438503446008</v>
+      </c>
+      <c r="C42" t="n">
+        <v>57.62457848881445</v>
+      </c>
+      <c r="D42" t="n">
+        <v>56.86383928072763</v>
+      </c>
+      <c r="E42" t="n">
+        <v>71.52507676061178</v>
+      </c>
+      <c r="F42" t="n">
+        <v>62.25247524252283</v>
+      </c>
+      <c r="G42" t="n">
+        <v>62.15048874244462</v>
+      </c>
+      <c r="H42" t="n">
+        <v>65.36956751120759</v>
+      </c>
+      <c r="I42" t="n">
+        <v>43.05466921489168</v>
+      </c>
+      <c r="J42" t="n">
+        <v>36.20703125</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>1.2415</v>
+      </c>
+      <c r="B43" t="n">
+        <v>60.70536028869888</v>
+      </c>
+      <c r="C43" t="n">
+        <v>63.08774527452143</v>
+      </c>
+      <c r="D43" t="n">
+        <v>58.90372052896507</v>
+      </c>
+      <c r="E43" t="n">
+        <v>69.7316413513652</v>
+      </c>
+      <c r="F43" t="n">
+        <v>62.01574802649557</v>
+      </c>
+      <c r="G43" t="n">
+        <v>67.38874499146499</v>
+      </c>
+      <c r="H43" t="n">
+        <v>63.36294551581142</v>
+      </c>
+      <c r="I43" t="n">
+        <v>40.44697633226852</v>
+      </c>
+      <c r="J43" t="n">
+        <v>36.20703125</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>1.2718</v>
+      </c>
+      <c r="B44" t="n">
+        <v>60.56215149284156</v>
+      </c>
+      <c r="C44" t="n">
+        <v>60.40419161176266</v>
+      </c>
+      <c r="D44" t="n">
+        <v>61.97261804474847</v>
+      </c>
+      <c r="E44" t="n">
+        <v>70.73822742663106</v>
+      </c>
+      <c r="F44" t="n">
+        <v>62.18821728650605</v>
+      </c>
+      <c r="G44" t="n">
+        <v>67.09766797006166</v>
+      </c>
+      <c r="H44" t="n">
+        <v>61.99143468460878</v>
+      </c>
+      <c r="I44" t="n">
+        <v>39.54270342557221</v>
+      </c>
+      <c r="J44" t="n">
+        <v>36.20703125</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>1.302</v>
+      </c>
+      <c r="B45" t="n">
+        <v>60.3001507853841</v>
+      </c>
+      <c r="C45" t="n">
+        <v>60.36446468748186</v>
+      </c>
+      <c r="D45" t="n">
+        <v>66.62924501325962</v>
+      </c>
+      <c r="E45" t="n">
+        <v>71.56484675773615</v>
+      </c>
+      <c r="F45" t="n">
+        <v>58.84894305934017</v>
+      </c>
+      <c r="G45" t="n">
+        <v>65.14018691088489</v>
+      </c>
+      <c r="H45" t="n">
+        <v>61.44501278281756</v>
+      </c>
+      <c r="I45" t="n">
+        <v>38.10835628616856</v>
+      </c>
+      <c r="J45" t="n">
+        <v>36.20703125</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>1.3323</v>
+      </c>
+      <c r="B46" t="n">
+        <v>58.79208159586506</v>
+      </c>
+      <c r="C46" t="n">
+        <v>58.60465115779769</v>
+      </c>
+      <c r="D46" t="n">
+        <v>58.39620005089564</v>
+      </c>
+      <c r="E46" t="n">
+        <v>68.36776022181226</v>
+      </c>
+      <c r="F46" t="n">
+        <v>58.14764286297074</v>
+      </c>
+      <c r="G46" t="n">
+        <v>65.5003498900286</v>
+      </c>
+      <c r="H46" t="n">
+        <v>64.07870815465444</v>
+      </c>
+      <c r="I46" t="n">
+        <v>38.44925883289598</v>
+      </c>
+      <c r="J46" t="n">
+        <v>36.20703125</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>1.3626</v>
+      </c>
+      <c r="B47" t="n">
+        <v>58.35988672054653</v>
+      </c>
+      <c r="C47" t="n">
+        <v>59.04030709673014</v>
+      </c>
+      <c r="D47" t="n">
+        <v>57.95032828506736</v>
+      </c>
+      <c r="E47" t="n">
+        <v>66.83385579438558</v>
+      </c>
+      <c r="F47" t="n">
+        <v>64.82364155839504</v>
+      </c>
+      <c r="G47" t="n">
+        <v>63.2109431195496</v>
+      </c>
+      <c r="H47" t="n">
+        <v>59.08735913832577</v>
+      </c>
+      <c r="I47" t="n">
+        <v>37.5727720513722</v>
+      </c>
+      <c r="J47" t="n">
+        <v>36.20703125</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>1.3929</v>
+      </c>
+      <c r="B48" t="n">
+        <v>62.17053710487556</v>
+      </c>
+      <c r="C48" t="n">
+        <v>59.93291091560708</v>
+      </c>
+      <c r="D48" t="n">
+        <v>66.53510007959824</v>
+      </c>
+      <c r="E48" t="n">
+        <v>77.09405226913503</v>
+      </c>
+      <c r="F48" t="n">
+        <v>68.18392939583393</v>
+      </c>
+      <c r="G48" t="n">
+        <v>68.1020360352496</v>
+      </c>
+      <c r="H48" t="n">
+        <v>58.0068728474813</v>
+      </c>
+      <c r="I48" t="n">
+        <v>37.33885819122381</v>
+      </c>
+      <c r="J48" t="n">
+        <v>36.20703125</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>1.4232</v>
+      </c>
+      <c r="B49" t="n">
+        <v>59.61808306566977</v>
+      </c>
+      <c r="C49" t="n">
+        <v>58.89432116837045</v>
+      </c>
+      <c r="D49" t="n">
+        <v>61.82023104601986</v>
+      </c>
+      <c r="E49" t="n">
+        <v>74.15776499089549</v>
+      </c>
+      <c r="F49" t="n">
+        <v>58.49590937196609</v>
+      </c>
+      <c r="G49" t="n">
+        <v>65.18972424670572</v>
+      </c>
+      <c r="H49" t="n">
+        <v>60.62335882615538</v>
+      </c>
+      <c r="I49" t="n">
+        <v>38.14527180957544</v>
+      </c>
+      <c r="J49" t="n">
+        <v>36.20703125</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>1.4534</v>
+      </c>
+      <c r="B50" t="n">
+        <v>62.00460408069753</v>
+      </c>
+      <c r="C50" t="n">
+        <v>59.40170939671204</v>
+      </c>
+      <c r="D50" t="n">
+        <v>62.59961527392795</v>
+      </c>
+      <c r="E50" t="n">
+        <v>74.17934346977744</v>
+      </c>
+      <c r="F50" t="n">
+        <v>66.57492354239936</v>
+      </c>
+      <c r="G50" t="n">
+        <v>62.92083711966057</v>
+      </c>
+      <c r="H50" t="n">
+        <v>64.31910251920908</v>
+      </c>
+      <c r="I50" t="n">
+        <v>44.03669724319629</v>
+      </c>
+      <c r="J50" t="n">
+        <v>36.20703125</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>1.4837</v>
+      </c>
+      <c r="B51" t="n">
+        <v>64.51637032338303</v>
+      </c>
+      <c r="C51" t="n">
+        <v>64.09781400018237</v>
+      </c>
+      <c r="D51" t="n">
+        <v>64.01803324382193</v>
+      </c>
+      <c r="E51" t="n">
+        <v>76.42209397686833</v>
+      </c>
+      <c r="F51" t="n">
+        <v>70.56263599126768</v>
+      </c>
+      <c r="G51" t="n">
+        <v>71.76190475690242</v>
+      </c>
+      <c r="H51" t="n">
+        <v>62.37997626008345</v>
+      </c>
+      <c r="I51" t="n">
+        <v>42.37213403455502</v>
+      </c>
+      <c r="J51" t="n">
+        <v>36.20703125</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>1.514</v>
+      </c>
+      <c r="B52" t="n">
+        <v>62.17227817700766</v>
+      </c>
+      <c r="C52" t="n">
+        <v>60.40570998748355</v>
+      </c>
+      <c r="D52" t="n">
+        <v>61.37326928013047</v>
+      </c>
+      <c r="E52" t="n">
+        <v>73.10231022602878</v>
+      </c>
+      <c r="F52" t="n">
+        <v>69.77777777277871</v>
+      </c>
+      <c r="G52" t="n">
+        <v>65.20808560736404</v>
+      </c>
+      <c r="H52" t="n">
+        <v>61.7359284537808</v>
+      </c>
+      <c r="I52" t="n">
+        <v>43.60286591148733</v>
+      </c>
+      <c r="J52" t="n">
+        <v>36.20703125</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>1.5443</v>
+      </c>
+      <c r="B53" t="n">
+        <v>61.76808347300919</v>
+      </c>
+      <c r="C53" t="n">
+        <v>59.51293759012902</v>
+      </c>
+      <c r="D53" t="n">
+        <v>58.77044556749637</v>
+      </c>
+      <c r="E53" t="n">
+        <v>71.94922194422477</v>
+      </c>
+      <c r="F53" t="n">
+        <v>65.37267080245142</v>
+      </c>
+      <c r="G53" t="n">
+        <v>66.17751478789667</v>
+      </c>
+      <c r="H53" t="n">
+        <v>65.66886869860163</v>
+      </c>
+      <c r="I53" t="n">
+        <v>44.92492492026441</v>
+      </c>
+      <c r="J53" t="n">
+        <v>36.20703125</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>1.5746</v>
+      </c>
+      <c r="B54" t="n">
+        <v>61.8113509545256</v>
+      </c>
+      <c r="C54" t="n">
+        <v>61.89791516394268</v>
+      </c>
+      <c r="D54" t="n">
+        <v>61.65330383797181</v>
+      </c>
+      <c r="E54" t="n">
+        <v>72.48592115348585</v>
+      </c>
+      <c r="F54" t="n">
+        <v>63.21337147520064</v>
+      </c>
+      <c r="G54" t="n">
+        <v>66.68188041490029</v>
+      </c>
+      <c r="H54" t="n">
+        <v>62.79842224957267</v>
+      </c>
+      <c r="I54" t="n">
+        <v>43.94864238660521</v>
+      </c>
+      <c r="J54" t="n">
+        <v>36.20703125</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>1.6048</v>
+      </c>
+      <c r="B55" t="n">
+        <v>63.2638367344568</v>
+      </c>
+      <c r="C55" t="n">
+        <v>64.04943656351733</v>
+      </c>
+      <c r="D55" t="n">
+        <v>63.86740330992463</v>
+      </c>
+      <c r="E55" t="n">
+        <v>73.78836833102481</v>
+      </c>
+      <c r="F55" t="n">
+        <v>69.49854316322407</v>
+      </c>
+      <c r="G55" t="n">
+        <v>67.87434074253443</v>
+      </c>
+      <c r="H55" t="n">
+        <v>63.57014672789916</v>
+      </c>
+      <c r="I55" t="n">
+        <v>40.19861830307323</v>
+      </c>
+      <c r="J55" t="n">
+        <v>36.20703125</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>1.6351</v>
+      </c>
+      <c r="B56" t="n">
+        <v>59.59662739752068</v>
+      </c>
+      <c r="C56" t="n">
+        <v>59.03083699940122</v>
+      </c>
+      <c r="D56" t="n">
+        <v>57.4438591577488</v>
+      </c>
+      <c r="E56" t="n">
+        <v>68.74490627047001</v>
+      </c>
+      <c r="F56" t="n">
+        <v>63.40790682920024</v>
+      </c>
+      <c r="G56" t="n">
+        <v>63.57435197317378</v>
+      </c>
+      <c r="H56" t="n">
+        <v>61.7765397660191</v>
+      </c>
+      <c r="I56" t="n">
+        <v>43.19799078663154</v>
+      </c>
+      <c r="J56" t="n">
+        <v>36.20703125</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>1.6654</v>
+      </c>
+      <c r="B57" t="n">
+        <v>59.43947737912881</v>
+      </c>
+      <c r="C57" t="n">
+        <v>60.50791313448774</v>
+      </c>
+      <c r="D57" t="n">
+        <v>60.43648572528908</v>
+      </c>
+      <c r="E57" t="n">
+        <v>70.69141341535649</v>
+      </c>
+      <c r="F57" t="n">
+        <v>58.45771143778433</v>
+      </c>
+      <c r="G57" t="n">
+        <v>63.86400183281224</v>
+      </c>
+      <c r="H57" t="n">
+        <v>60.73645013986093</v>
+      </c>
+      <c r="I57" t="n">
+        <v>41.38236596831079</v>
+      </c>
+      <c r="J57" t="n">
+        <v>36.20703125</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>1.6957</v>
+      </c>
+      <c r="B58" t="n">
+        <v>56.59481503323399</v>
+      </c>
+      <c r="C58" t="n">
+        <v>58.10141059355162</v>
+      </c>
+      <c r="D58" t="n">
+        <v>55.98181301008756</v>
+      </c>
+      <c r="E58" t="n">
+        <v>68.6474132507749</v>
+      </c>
+      <c r="F58" t="n">
+        <v>49.17153226579087</v>
+      </c>
+      <c r="G58" t="n">
+        <v>64.04387219337688</v>
+      </c>
+      <c r="H58" t="n">
+        <v>60.08462622925691</v>
+      </c>
+      <c r="I58" t="n">
+        <v>40.13303768979915</v>
+      </c>
+      <c r="J58" t="n">
+        <v>36.20703125</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>1.726</v>
+      </c>
+      <c r="B59" t="n">
+        <v>59.32454334868963</v>
+      </c>
+      <c r="C59" t="n">
+        <v>61.11111110610658</v>
+      </c>
+      <c r="D59" t="n">
+        <v>59.49542555641795</v>
+      </c>
+      <c r="E59" t="n">
+        <v>71.47752468760102</v>
+      </c>
+      <c r="F59" t="n">
+        <v>62.1543162669623</v>
+      </c>
+      <c r="G59" t="n">
+        <v>64.71267020039878</v>
+      </c>
+      <c r="H59" t="n">
+        <v>57.79025048877082</v>
+      </c>
+      <c r="I59" t="n">
+        <v>38.53050513456994</v>
+      </c>
+      <c r="J59" t="n">
+        <v>36.20703125</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>1.7562</v>
+      </c>
+      <c r="B60" t="n">
+        <v>57.9857151368692</v>
+      </c>
+      <c r="C60" t="n">
+        <v>61.22748988841723</v>
+      </c>
+      <c r="D60" t="n">
+        <v>59.87225770120317</v>
+      </c>
+      <c r="E60" t="n">
+        <v>70.37489812051068</v>
+      </c>
+      <c r="F60" t="n">
+        <v>50.79702443708326</v>
+      </c>
+      <c r="G60" t="n">
+        <v>63.89526871341913</v>
+      </c>
+      <c r="H60" t="n">
+        <v>59.88098965995652</v>
+      </c>
+      <c r="I60" t="n">
+        <v>39.85207743749434</v>
+      </c>
+      <c r="J60" t="n">
+        <v>36.20703125</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>1.7865</v>
+      </c>
+      <c r="B61" t="n">
+        <v>58.29463846151457</v>
+      </c>
+      <c r="C61" t="n">
+        <v>61.99701936906421</v>
+      </c>
+      <c r="D61" t="n">
+        <v>57.8587699266909</v>
+      </c>
+      <c r="E61" t="n">
+        <v>72.78756476184721</v>
+      </c>
+      <c r="F61" t="n">
+        <v>55.31848621209858</v>
+      </c>
+      <c r="G61" t="n">
+        <v>64.09955388088569</v>
+      </c>
+      <c r="H61" t="n">
+        <v>58.4387733169996</v>
+      </c>
+      <c r="I61" t="n">
+        <v>37.5623017630158</v>
+      </c>
+      <c r="J61" t="n">
+        <v>36.20703125</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>1.8168</v>
+      </c>
+      <c r="B62" t="n">
+        <v>58.66111247041552</v>
+      </c>
+      <c r="C62" t="n">
+        <v>59.99999999499649</v>
+      </c>
+      <c r="D62" t="n">
+        <v>61.13585745603628</v>
+      </c>
+      <c r="E62" t="n">
+        <v>69.87321392134184</v>
+      </c>
+      <c r="F62" t="n">
+        <v>55.5401448555316</v>
+      </c>
+      <c r="G62" t="n">
+        <v>61.3688562191611</v>
+      </c>
+      <c r="H62" t="n">
+        <v>63.61061575086645</v>
+      </c>
+      <c r="I62" t="n">
+        <v>39.0990990949748</v>
+      </c>
+      <c r="J62" t="n">
+        <v>36.20703125</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>1.8471</v>
+      </c>
+      <c r="B63" t="n">
+        <v>56.80519332831232</v>
+      </c>
+      <c r="C63" t="n">
+        <v>57.3932926779271</v>
+      </c>
+      <c r="D63" t="n">
+        <v>57.45638716440542</v>
+      </c>
+      <c r="E63" t="n">
+        <v>70.72118347558769</v>
+      </c>
+      <c r="F63" t="n">
+        <v>50.73004038021127</v>
+      </c>
+      <c r="G63" t="n">
+        <v>63.75058166088849</v>
+      </c>
+      <c r="H63" t="n">
+        <v>60.66391841560578</v>
+      </c>
+      <c r="I63" t="n">
+        <v>36.92094952356049</v>
+      </c>
+      <c r="J63" t="n">
+        <v>36.20703125</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>1.8774</v>
+      </c>
+      <c r="B64" t="n">
+        <v>58.16502905126985</v>
+      </c>
+      <c r="C64" t="n">
+        <v>59.41452836507418</v>
+      </c>
+      <c r="D64" t="n">
+        <v>58.96370185147924</v>
+      </c>
+      <c r="E64" t="n">
+        <v>69.05683438082326</v>
+      </c>
+      <c r="F64" t="n">
+        <v>58.3736538111371</v>
+      </c>
+      <c r="G64" t="n">
+        <v>65.05858028445475</v>
+      </c>
+      <c r="H64" t="n">
+        <v>57.6141078788742</v>
+      </c>
+      <c r="I64" t="n">
+        <v>38.67379678704629</v>
+      </c>
+      <c r="J64" t="n">
+        <v>36.20703125</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>1.9076</v>
+      </c>
+      <c r="B65" t="n">
+        <v>56.9448536034385</v>
+      </c>
+      <c r="C65" t="n">
+        <v>59.45742275309826</v>
+      </c>
+      <c r="D65" t="n">
+        <v>58.17048994121448</v>
+      </c>
+      <c r="E65" t="n">
+        <v>69.95460172839432</v>
+      </c>
+      <c r="F65" t="n">
+        <v>54.17976115150472</v>
+      </c>
+      <c r="G65" t="n">
+        <v>64.59948319913134</v>
+      </c>
+      <c r="H65" t="n">
+        <v>58.54696308412409</v>
+      </c>
+      <c r="I65" t="n">
+        <v>33.70525336660227</v>
+      </c>
+      <c r="J65" t="n">
+        <v>36.20703125</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>1.9379</v>
+      </c>
+      <c r="B66" t="n">
+        <v>59.32955271842848</v>
+      </c>
+      <c r="C66" t="n">
+        <v>57.48201438348881</v>
+      </c>
+      <c r="D66" t="n">
+        <v>62.2714681390533</v>
+      </c>
+      <c r="E66" t="n">
+        <v>75.27975584444118</v>
+      </c>
+      <c r="F66" t="n">
+        <v>63.77393452248417</v>
+      </c>
+      <c r="G66" t="n">
+        <v>66.37813211345225</v>
+      </c>
+      <c r="H66" t="n">
+        <v>56.92907576702378</v>
+      </c>
+      <c r="I66" t="n">
+        <v>33.19248825905584</v>
+      </c>
+      <c r="J66" t="n">
+        <v>36.20703125</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>1.9682</v>
+      </c>
+      <c r="B67" t="n">
+        <v>59.91855570184021</v>
+      </c>
+      <c r="C67" t="n">
+        <v>59.77186311287014</v>
+      </c>
+      <c r="D67" t="n">
+        <v>61.68277429860797</v>
+      </c>
+      <c r="E67" t="n">
+        <v>73.74093263749486</v>
+      </c>
+      <c r="F67" t="n">
+        <v>62.19358893277411</v>
+      </c>
+      <c r="G67" t="n">
+        <v>66.82498218450125</v>
+      </c>
+      <c r="H67" t="n">
+        <v>59.5735469157824</v>
+      </c>
+      <c r="I67" t="n">
+        <v>35.64220183085067</v>
+      </c>
+      <c r="J67" t="n">
+        <v>36.20703125</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>1.9985</v>
+      </c>
+      <c r="B68" t="n">
+        <v>58.44389513468343</v>
+      </c>
+      <c r="C68" t="n">
+        <v>56.61218424462442</v>
+      </c>
+      <c r="D68" t="n">
+        <v>60.38472260443557</v>
+      </c>
+      <c r="E68" t="n">
+        <v>70.80871867497679</v>
+      </c>
+      <c r="F68" t="n">
+        <v>62.94711097023582</v>
+      </c>
+      <c r="G68" t="n">
+        <v>63.05555555055354</v>
+      </c>
+      <c r="H68" t="n">
+        <v>57.95175796724007</v>
+      </c>
+      <c r="I68" t="n">
+        <v>37.34721593071775</v>
+      </c>
+      <c r="J68" t="n">
+        <v>36.20703125</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B69" t="n">
+        <v>58.42674612115578</v>
+      </c>
+      <c r="C69" t="n">
+        <v>59.64912280201352</v>
+      </c>
+      <c r="D69" t="n">
+        <v>60.81382385231458</v>
+      </c>
+      <c r="E69" t="n">
+        <v>70.31122030622322</v>
+      </c>
+      <c r="F69" t="n">
+        <v>60.90145148468581</v>
+      </c>
+      <c r="G69" t="n">
+        <v>63.95563770294645</v>
+      </c>
+      <c r="H69" t="n">
+        <v>57.5254970590233</v>
+      </c>
+      <c r="I69" t="n">
+        <v>35.83046964088356</v>
+      </c>
+      <c r="J69" t="n">
+        <v>36.20703125</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>2.0288</v>
+      </c>
+      <c r="B70" t="n">
+        <v>55.91655164994862</v>
+      </c>
+      <c r="C70" t="n">
+        <v>57.06214688766155</v>
+      </c>
+      <c r="D70" t="n">
+        <v>56.07681755330387</v>
+      </c>
+      <c r="E70" t="n">
+        <v>72.91373415948649</v>
+      </c>
+      <c r="F70" t="n">
+        <v>53.34337348897805</v>
+      </c>
+      <c r="G70" t="n">
+        <v>62.5688073344492</v>
+      </c>
+      <c r="H70" t="n">
+        <v>55.41510769044986</v>
+      </c>
+      <c r="I70" t="n">
+        <v>34.03587443531136</v>
+      </c>
+      <c r="J70" t="n">
+        <v>36.20703125</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>2.059</v>
+      </c>
+      <c r="B71" t="n">
+        <v>59.69716013568623</v>
+      </c>
+      <c r="C71" t="n">
+        <v>60.43058648348853</v>
+      </c>
+      <c r="D71" t="n">
+        <v>59.06531531033443</v>
+      </c>
+      <c r="E71" t="n">
+        <v>73.05731184488933</v>
+      </c>
+      <c r="F71" t="n">
+        <v>65.35202587698856</v>
+      </c>
+      <c r="G71" t="n">
+        <v>65.10982658459342</v>
+      </c>
+      <c r="H71" t="n">
+        <v>58.59324585443348</v>
+      </c>
+      <c r="I71" t="n">
+        <v>36.2718089950759</v>
+      </c>
+      <c r="J71" t="n">
+        <v>36.20703125</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>2.0893</v>
+      </c>
+      <c r="B72" t="n">
+        <v>56.95536877020362</v>
+      </c>
+      <c r="C72" t="n">
+        <v>55.54396940759677</v>
+      </c>
+      <c r="D72" t="n">
+        <v>57.66904892298796</v>
+      </c>
+      <c r="E72" t="n">
+        <v>69.01945056648388</v>
+      </c>
+      <c r="F72" t="n">
+        <v>62.28363194155329</v>
+      </c>
+      <c r="G72" t="n">
+        <v>61.86594202398879</v>
+      </c>
+      <c r="H72" t="n">
+        <v>54.1649979926199</v>
+      </c>
+      <c r="I72" t="n">
+        <v>38.14054053619469</v>
+      </c>
+      <c r="J72" t="n">
+        <v>36.20703125</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>2.1196</v>
+      </c>
+      <c r="B73" t="n">
+        <v>57.46672002218531</v>
+      </c>
+      <c r="C73" t="n">
+        <v>59.46768060336445</v>
+      </c>
+      <c r="D73" t="n">
+        <v>56.6451250301401</v>
+      </c>
+      <c r="E73" t="n">
+        <v>70.28370262495164</v>
+      </c>
+      <c r="F73" t="n">
+        <v>62.95828065239583</v>
+      </c>
+      <c r="G73" t="n">
+        <v>63.32627616530991</v>
+      </c>
+      <c r="H73" t="n">
+        <v>53.96629674802599</v>
+      </c>
+      <c r="I73" t="n">
+        <v>35.61967833110927</v>
+      </c>
+      <c r="J73" t="n">
+        <v>36.20703125</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>2.1499</v>
+      </c>
+      <c r="B74" t="n">
+        <v>58.37044403589202</v>
+      </c>
+      <c r="C74" t="n">
+        <v>58.64381519618816</v>
+      </c>
+      <c r="D74" t="n">
+        <v>61.1282626949888</v>
+      </c>
+      <c r="E74" t="n">
+        <v>73.5282009007273</v>
+      </c>
+      <c r="F74" t="n">
+        <v>62.0393900839467</v>
+      </c>
+      <c r="G74" t="n">
+        <v>63.06179774780606</v>
+      </c>
+      <c r="H74" t="n">
+        <v>53.16604586836801</v>
+      </c>
+      <c r="I74" t="n">
+        <v>37.02559575921916</v>
+      </c>
+      <c r="J74" t="n">
+        <v>36.20703125</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>2.1802</v>
+      </c>
+      <c r="B75" t="n">
+        <v>58.93972653879162</v>
+      </c>
+      <c r="C75" t="n">
+        <v>59.96289424360414</v>
+      </c>
+      <c r="D75" t="n">
+        <v>59.84340044244186</v>
+      </c>
+      <c r="E75" t="n">
+        <v>75.03583861879962</v>
+      </c>
+      <c r="F75" t="n">
+        <v>60.68044119431462</v>
+      </c>
+      <c r="G75" t="n">
+        <v>65.35977859278442</v>
+      </c>
+      <c r="H75" t="n">
+        <v>59.05435830967424</v>
+      </c>
+      <c r="I75" t="n">
+        <v>32.64137436992244</v>
+      </c>
+      <c r="J75" t="n">
+        <v>36.20703125</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>2.2104</v>
+      </c>
+      <c r="B76" t="n">
+        <v>58.02992053163187</v>
+      </c>
+      <c r="C76" t="n">
+        <v>56.83345779932782</v>
+      </c>
+      <c r="D76" t="n">
+        <v>57.97842134653048</v>
+      </c>
+      <c r="E76" t="n">
+        <v>71.80119120469793</v>
+      </c>
+      <c r="F76" t="n">
+        <v>62.54081790823092</v>
+      </c>
+      <c r="G76" t="n">
+        <v>63.74296434771745</v>
+      </c>
+      <c r="H76" t="n">
+        <v>56.00413009314123</v>
+      </c>
+      <c r="I76" t="n">
+        <v>37.30846102177729</v>
+      </c>
+      <c r="J76" t="n">
+        <v>36.20703125</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>2.2407</v>
+      </c>
+      <c r="B77" t="n">
+        <v>57.30338347242446</v>
+      </c>
+      <c r="C77" t="n">
+        <v>58.84600687310573</v>
+      </c>
+      <c r="D77" t="n">
+        <v>56.99451975275571</v>
+      </c>
+      <c r="E77" t="n">
+        <v>68.40894835378337</v>
+      </c>
+      <c r="F77" t="n">
+        <v>68.47306343140632</v>
+      </c>
+      <c r="G77" t="n">
+        <v>63.06436118616207</v>
+      </c>
+      <c r="H77" t="n">
+        <v>54.78190815500295</v>
+      </c>
+      <c r="I77" t="n">
+        <v>30.55487655475503</v>
+      </c>
+      <c r="J77" t="n">
+        <v>36.20703125</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>2.271</v>
+      </c>
+      <c r="B78" t="n">
+        <v>62.17299315682866</v>
+      </c>
+      <c r="C78" t="n">
+        <v>62.3525205527415</v>
+      </c>
+      <c r="D78" t="n">
+        <v>64.67966573317348</v>
+      </c>
+      <c r="E78" t="n">
+        <v>75.60726678414231</v>
+      </c>
+      <c r="F78" t="n">
+        <v>66.84202382294163</v>
+      </c>
+      <c r="G78" t="n">
+        <v>66.26838234794027</v>
+      </c>
+      <c r="H78" t="n">
+        <v>59.7420634870799</v>
+      </c>
+      <c r="I78" t="n">
+        <v>39.71902936978149</v>
+      </c>
+      <c r="J78" t="n">
+        <v>36.20703125</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>2.3013</v>
+      </c>
+      <c r="B79" t="n">
+        <v>60.960648707289</v>
+      </c>
+      <c r="C79" t="n">
+        <v>61.12781954386895</v>
+      </c>
+      <c r="D79" t="n">
+        <v>60.66591421623963</v>
+      </c>
+      <c r="E79" t="n">
+        <v>74.59437255610469</v>
+      </c>
+      <c r="F79" t="n">
+        <v>70.58458675263466</v>
+      </c>
+      <c r="G79" t="n">
+        <v>67.66705743931101</v>
+      </c>
+      <c r="H79" t="n">
+        <v>56.93524256829767</v>
+      </c>
+      <c r="I79" t="n">
+        <v>35.14954787456644</v>
+      </c>
+      <c r="J79" t="n">
+        <v>36.20703125</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>2.3316</v>
+      </c>
+      <c r="B80" t="n">
+        <v>61.44858270619326</v>
+      </c>
+      <c r="C80" t="n">
+        <v>59.91962001691816</v>
+      </c>
+      <c r="D80" t="n">
+        <v>61.3445378101416</v>
+      </c>
+      <c r="E80" t="n">
+        <v>73.80373073303717</v>
+      </c>
+      <c r="F80" t="n">
+        <v>68.50369457627885</v>
+      </c>
+      <c r="G80" t="n">
+        <v>66.52825835716673</v>
+      </c>
+      <c r="H80" t="n">
+        <v>60.42713567346016</v>
+      </c>
+      <c r="I80" t="n">
+        <v>39.6131017763502</v>
+      </c>
+      <c r="J80" t="n">
+        <v>36.20703125</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>2.3618</v>
+      </c>
+      <c r="B81" t="n">
+        <v>61.12685361979422</v>
+      </c>
+      <c r="C81" t="n">
+        <v>61.50375939349297</v>
+      </c>
+      <c r="D81" t="n">
+        <v>60.72439161924464</v>
+      </c>
+      <c r="E81" t="n">
+        <v>74.79608482371265</v>
+      </c>
+      <c r="F81" t="n">
+        <v>65.68733569934311</v>
+      </c>
+      <c r="G81" t="n">
+        <v>67.52396539130274</v>
+      </c>
+      <c r="H81" t="n">
+        <v>59.73372470415903</v>
+      </c>
+      <c r="I81" t="n">
+        <v>37.9187137073044</v>
+      </c>
+      <c r="J81" t="n">
+        <v>36.20703125</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>2.3921</v>
+      </c>
+      <c r="B82" t="n">
+        <v>61.23911034215226</v>
+      </c>
+      <c r="C82" t="n">
+        <v>58.90909090408802</v>
+      </c>
+      <c r="D82" t="n">
+        <v>61.83953032769528</v>
+      </c>
+      <c r="E82" t="n">
+        <v>72.7123848465892</v>
+      </c>
+      <c r="F82" t="n">
+        <v>71.5864860606993</v>
+      </c>
+      <c r="G82" t="n">
+        <v>66.06731212040189</v>
+      </c>
+      <c r="H82" t="n">
+        <v>57.98540737241395</v>
+      </c>
+      <c r="I82" t="n">
+        <v>39.57356076317815</v>
+      </c>
+      <c r="J82" t="n">
+        <v>36.20703125</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>2.4224</v>
+      </c>
+      <c r="B83" t="n">
+        <v>59.55354170222321</v>
+      </c>
+      <c r="C83" t="n">
+        <v>58.37563451276419</v>
+      </c>
+      <c r="D83" t="n">
+        <v>62.38014663912619</v>
+      </c>
+      <c r="E83" t="n">
+        <v>73.50112542982964</v>
+      </c>
+      <c r="F83" t="n">
+        <v>67.4429436372895</v>
+      </c>
+      <c r="G83" t="n">
+        <v>67.88389512608299</v>
+      </c>
+      <c r="H83" t="n">
+        <v>53.98907103338964</v>
+      </c>
+      <c r="I83" t="n">
+        <v>33.30197553708031</v>
+      </c>
+      <c r="J83" t="n">
+        <v>36.20703125</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>2.4527</v>
+      </c>
+      <c r="B84" t="n">
+        <v>61.19591414326403</v>
+      </c>
+      <c r="C84" t="n">
+        <v>60.56971513742514</v>
+      </c>
+      <c r="D84" t="n">
+        <v>63.05390911158861</v>
+      </c>
+      <c r="E84" t="n">
+        <v>73.86903531828659</v>
+      </c>
+      <c r="F84" t="n">
+        <v>68.51103512089163</v>
+      </c>
+      <c r="G84" t="n">
+        <v>66.25795802376379</v>
+      </c>
+      <c r="H84" t="n">
+        <v>57.74983741112086</v>
+      </c>
+      <c r="I84" t="n">
+        <v>38.3599088797716</v>
+      </c>
+      <c r="J84" t="n">
+        <v>36.20703125</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>2.483</v>
+      </c>
+      <c r="B85" t="n">
+        <v>60.84363622192737</v>
+      </c>
+      <c r="C85" t="n">
+        <v>62.17538576842555</v>
+      </c>
+      <c r="D85" t="n">
+        <v>65.5143099978573</v>
+      </c>
+      <c r="E85" t="n">
+        <v>72.30260437698264</v>
+      </c>
+      <c r="F85" t="n">
+        <v>63.01582376167507</v>
+      </c>
+      <c r="G85" t="n">
+        <v>67.63307984290637</v>
+      </c>
+      <c r="H85" t="n">
+        <v>56.83166180898179</v>
+      </c>
+      <c r="I85" t="n">
+        <v>38.4325879966629</v>
+      </c>
+      <c r="J85" t="n">
+        <v>36.20703125</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>2.5132</v>
+      </c>
+      <c r="B86" t="n">
+        <v>60.69652324715364</v>
+      </c>
+      <c r="C86" t="n">
+        <v>58.50986120756041</v>
+      </c>
+      <c r="D86" t="n">
+        <v>62.11044285995665</v>
+      </c>
+      <c r="E86" t="n">
+        <v>72.92085174268796</v>
+      </c>
+      <c r="F86" t="n">
+        <v>65.79554188585142</v>
+      </c>
+      <c r="G86" t="n">
+        <v>65.22339935013457</v>
+      </c>
+      <c r="H86" t="n">
+        <v>57.07566461671788</v>
+      </c>
+      <c r="I86" t="n">
+        <v>43.23990106716653</v>
+      </c>
+      <c r="J86" t="n">
+        <v>36.20703125</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>2.5435</v>
+      </c>
+      <c r="B87" t="n">
+        <v>55.53798421014024</v>
+      </c>
+      <c r="C87" t="n">
+        <v>58.02752293078104</v>
+      </c>
+      <c r="D87" t="n">
+        <v>60.94012310637468</v>
+      </c>
+      <c r="E87" t="n">
+        <v>70.32019703933877</v>
+      </c>
+      <c r="F87" t="n">
+        <v>50.07089963262402</v>
+      </c>
+      <c r="G87" t="n">
+        <v>62.92981629268905</v>
+      </c>
+      <c r="H87" t="n">
+        <v>53.46621399141878</v>
+      </c>
+      <c r="I87" t="n">
+        <v>33.01111647775528</v>
+      </c>
+      <c r="J87" t="n">
+        <v>36.20703125</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>2.5738</v>
+      </c>
+      <c r="B88" t="n">
+        <v>59.52417272255148</v>
+      </c>
+      <c r="C88" t="n">
+        <v>57.28376327269245</v>
+      </c>
+      <c r="D88" t="n">
+        <v>63.26987681472394</v>
+      </c>
+      <c r="E88" t="n">
+        <v>70.77299611982315</v>
+      </c>
+      <c r="F88" t="n">
+        <v>64.29475015312798</v>
+      </c>
+      <c r="G88" t="n">
+        <v>66.25592416561346</v>
+      </c>
+      <c r="H88" t="n">
+        <v>56.22331006692926</v>
+      </c>
+      <c r="I88" t="n">
+        <v>38.56858846495014</v>
+      </c>
+      <c r="J88" t="n">
+        <v>36.20703125</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>2.6041</v>
+      </c>
+      <c r="B89" t="n">
+        <v>52.53373804307954</v>
+      </c>
+      <c r="C89" t="n">
+        <v>55.03610793874727</v>
+      </c>
+      <c r="D89" t="n">
+        <v>52.29279407079049</v>
+      </c>
+      <c r="E89" t="n">
+        <v>62.05310474098832</v>
+      </c>
+      <c r="F89" t="n">
+        <v>48.11575766712801</v>
+      </c>
+      <c r="G89" t="n">
+        <v>59.79430757691721</v>
+      </c>
+      <c r="H89" t="n">
+        <v>56.09596509873268</v>
+      </c>
+      <c r="I89" t="n">
+        <v>34.34812920825288</v>
+      </c>
+      <c r="J89" t="n">
+        <v>36.20703125</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>2.6344</v>
+      </c>
+      <c r="B90" t="n">
+        <v>55.51371769673287</v>
+      </c>
+      <c r="C90" t="n">
+        <v>57.27836555501133</v>
+      </c>
+      <c r="D90" t="n">
+        <v>58.27740491671486</v>
+      </c>
+      <c r="E90" t="n">
+        <v>66.66666666166795</v>
+      </c>
+      <c r="F90" t="n">
+        <v>51.34004647059872</v>
+      </c>
+      <c r="G90" t="n">
+        <v>65.76302874003088</v>
+      </c>
+      <c r="H90" t="n">
+        <v>54.76216274298208</v>
+      </c>
+      <c r="I90" t="n">
+        <v>34.50834879012427</v>
+      </c>
+      <c r="J90" t="n">
+        <v>36.20703125</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>2.6646</v>
+      </c>
+      <c r="B91" t="n">
+        <v>59.53506601136073</v>
+      </c>
+      <c r="C91" t="n">
+        <v>61.07038122666746</v>
+      </c>
+      <c r="D91" t="n">
+        <v>61.64574615958752</v>
+      </c>
+      <c r="E91" t="n">
+        <v>69.90251827282334</v>
+      </c>
+      <c r="F91" t="n">
+        <v>61.58583525288894</v>
+      </c>
+      <c r="G91" t="n">
+        <v>68.47851335155944</v>
+      </c>
+      <c r="H91" t="n">
+        <v>58.12532366154898</v>
+      </c>
+      <c r="I91" t="n">
+        <v>35.93714415444945</v>
+      </c>
+      <c r="J91" t="n">
+        <v>36.20703125</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>2.6949</v>
+      </c>
+      <c r="B92" t="n">
+        <v>59.23686096986993</v>
+      </c>
+      <c r="C92" t="n">
+        <v>59.73561985923872</v>
+      </c>
+      <c r="D92" t="n">
+        <v>61.39275765517923</v>
+      </c>
+      <c r="E92" t="n">
+        <v>69.6606380766913</v>
+      </c>
+      <c r="F92" t="n">
+        <v>62.60627608094646</v>
+      </c>
+      <c r="G92" t="n">
+        <v>68.15746563673945</v>
+      </c>
+      <c r="H92" t="n">
+        <v>57.29566094356571</v>
+      </c>
+      <c r="I92" t="n">
+        <v>35.80960853672866</v>
+      </c>
+      <c r="J92" t="n">
+        <v>36.20703125</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>2.7252</v>
+      </c>
+      <c r="B93" t="n">
+        <v>59.12976458262582</v>
+      </c>
+      <c r="C93" t="n">
+        <v>57.61564497431263</v>
+      </c>
+      <c r="D93" t="n">
+        <v>59.5962467962778</v>
+      </c>
+      <c r="E93" t="n">
+        <v>70.23121386783852</v>
+      </c>
+      <c r="F93" t="n">
+        <v>64.45141065330594</v>
+      </c>
+      <c r="G93" t="n">
+        <v>65.17752174435036</v>
+      </c>
+      <c r="H93" t="n">
+        <v>60.2076124518177</v>
+      </c>
+      <c r="I93" t="n">
+        <v>36.62870159047783</v>
+      </c>
+      <c r="J93" t="n">
+        <v>36.20703125</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>2.7555</v>
+      </c>
+      <c r="B94" t="n">
+        <v>57.20020237919712</v>
+      </c>
+      <c r="C94" t="n">
+        <v>58.50903613957554</v>
+      </c>
+      <c r="D94" t="n">
+        <v>57.22347629298925</v>
+      </c>
+      <c r="E94" t="n">
+        <v>66.61190964592812</v>
+      </c>
+      <c r="F94" t="n">
+        <v>62.67123287171052</v>
+      </c>
+      <c r="G94" t="n">
+        <v>65.32710279873535</v>
+      </c>
+      <c r="H94" t="n">
+        <v>53.44970905574049</v>
+      </c>
+      <c r="I94" t="n">
+        <v>36.60894984970054</v>
+      </c>
+      <c r="J94" t="n">
+        <v>36.20703125</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>2.7858</v>
+      </c>
+      <c r="B95" t="n">
+        <v>59.37558039703623</v>
+      </c>
+      <c r="C95" t="n">
+        <v>60.50295857487718</v>
+      </c>
+      <c r="D95" t="n">
+        <v>59.39463163409381</v>
+      </c>
+      <c r="E95" t="n">
+        <v>70.56179774781111</v>
+      </c>
+      <c r="F95" t="n">
+        <v>66.66666666166473</v>
+      </c>
+      <c r="G95" t="n">
+        <v>67.21776097751948</v>
+      </c>
+      <c r="H95" t="n">
+        <v>55.2315986308651</v>
+      </c>
+      <c r="I95" t="n">
+        <v>36.05364855242221</v>
+      </c>
+      <c r="J95" t="n">
+        <v>36.20703125</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>2.816</v>
+      </c>
+      <c r="B96" t="n">
+        <v>64.00347101266058</v>
+      </c>
+      <c r="C96" t="n">
+        <v>65.53128470436205</v>
+      </c>
+      <c r="D96" t="n">
+        <v>67.74734488042459</v>
+      </c>
+      <c r="E96" t="n">
+        <v>76.9884638687091</v>
+      </c>
+      <c r="F96" t="n">
+        <v>67.58813479853886</v>
+      </c>
+      <c r="G96" t="n">
+        <v>72.09575216584854</v>
+      </c>
+      <c r="H96" t="n">
+        <v>57.00867789192563</v>
+      </c>
+      <c r="I96" t="n">
+        <v>41.06463877881537</v>
+      </c>
+      <c r="J96" t="n">
+        <v>36.20703125</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>2.8463</v>
+      </c>
+      <c r="B97" t="n">
+        <v>63.78932665896182</v>
+      </c>
+      <c r="C97" t="n">
+        <v>63.92329204456768</v>
+      </c>
+      <c r="D97" t="n">
+        <v>66.70457776016708</v>
+      </c>
+      <c r="E97" t="n">
+        <v>75.44439850678822</v>
+      </c>
+      <c r="F97" t="n">
+        <v>68.49788101838601</v>
+      </c>
+      <c r="G97" t="n">
+        <v>73.37220602026997</v>
+      </c>
+      <c r="H97" t="n">
+        <v>61.93493873610274</v>
+      </c>
+      <c r="I97" t="n">
+        <v>36.64799252645103</v>
+      </c>
+      <c r="J97" t="n">
+        <v>36.20703125</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>2.8766</v>
+      </c>
+      <c r="B98" t="n">
+        <v>59.96890362804618</v>
+      </c>
+      <c r="C98" t="n">
+        <v>61.81146025377546</v>
+      </c>
+      <c r="D98" t="n">
+        <v>62.61499860109004</v>
+      </c>
+      <c r="E98" t="n">
+        <v>68.73216469129176</v>
+      </c>
+      <c r="F98" t="n">
+        <v>62.08398133247874</v>
+      </c>
+      <c r="G98" t="n">
+        <v>69.57951608614074</v>
+      </c>
+      <c r="H98" t="n">
+        <v>56.31307929473957</v>
+      </c>
+      <c r="I98" t="n">
+        <v>38.6471251368069</v>
+      </c>
+      <c r="J98" t="n">
+        <v>36.20703125</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>2.9069</v>
+      </c>
+      <c r="B99" t="n">
+        <v>61.32871222950143</v>
+      </c>
+      <c r="C99" t="n">
+        <v>62.29626946258182</v>
+      </c>
+      <c r="D99" t="n">
+        <v>64.34257479599279</v>
+      </c>
+      <c r="E99" t="n">
+        <v>71.57217530661872</v>
+      </c>
+      <c r="F99" t="n">
+        <v>66.03744861731636</v>
+      </c>
+      <c r="G99" t="n">
+        <v>67.85137317755071</v>
+      </c>
+      <c r="H99" t="n">
+        <v>57.97845048247409</v>
+      </c>
+      <c r="I99" t="n">
+        <v>39.22269376397559</v>
+      </c>
+      <c r="J99" t="n">
+        <v>36.20703125</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>2.9372</v>
+      </c>
+      <c r="B100" t="n">
+        <v>57.59413854737138</v>
+      </c>
+      <c r="C100" t="n">
+        <v>59.17910447260793</v>
+      </c>
+      <c r="D100" t="n">
+        <v>59.81255324694285</v>
+      </c>
+      <c r="E100" t="n">
+        <v>66.34874558903692</v>
+      </c>
+      <c r="F100" t="n">
+        <v>61.7276166406491</v>
+      </c>
+      <c r="G100" t="n">
+        <v>67.06443913580974</v>
+      </c>
+      <c r="H100" t="n">
+        <v>55.46405519214911</v>
+      </c>
+      <c r="I100" t="n">
+        <v>33.562455554404</v>
+      </c>
+      <c r="J100" t="n">
+        <v>36.20703125</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>2.9674</v>
+      </c>
+      <c r="B101" t="n">
+        <v>62.21203858294807</v>
+      </c>
+      <c r="C101" t="n">
+        <v>60.35325065264428</v>
+      </c>
+      <c r="D101" t="n">
+        <v>63.29326250549784</v>
+      </c>
+      <c r="E101" t="n">
+        <v>71.85970635715485</v>
+      </c>
+      <c r="F101" t="n">
+        <v>66.14737497552468</v>
+      </c>
+      <c r="G101" t="n">
+        <v>71.4185883947174</v>
+      </c>
+      <c r="H101" t="n">
+        <v>63.1885262889687</v>
+      </c>
+      <c r="I101" t="n">
+        <v>39.22356090612878</v>
+      </c>
+      <c r="J101" t="n">
+        <v>36.20703125</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>2.9977</v>
+      </c>
+      <c r="B102" t="n">
+        <v>61.50712405433932</v>
+      </c>
+      <c r="C102" t="n">
+        <v>60.59925093132586</v>
+      </c>
+      <c r="D102" t="n">
+        <v>62.38986783641571</v>
+      </c>
+      <c r="E102" t="n">
+        <v>72.88204296216641</v>
+      </c>
+      <c r="F102" t="n">
+        <v>66.05646912313945</v>
+      </c>
+      <c r="G102" t="n">
+        <v>69.20064500766836</v>
+      </c>
+      <c r="H102" t="n">
+        <v>63.03694157586225</v>
+      </c>
+      <c r="I102" t="n">
+        <v>36.38465094379716</v>
+      </c>
+      <c r="J102" t="n">
+        <v>36.20703125</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B103" t="n">
+        <v>61.07794800623039</v>
+      </c>
+      <c r="C103" t="n">
+        <v>59.45176218795398</v>
+      </c>
+      <c r="D103" t="n">
+        <v>61.41774891274883</v>
+      </c>
+      <c r="E103" t="n">
+        <v>71.64476303760981</v>
+      </c>
+      <c r="F103" t="n">
+        <v>67.83965727774037</v>
+      </c>
+      <c r="G103" t="n">
+        <v>67.02972543180746</v>
+      </c>
+      <c r="H103" t="n">
+        <v>61.99170123986995</v>
+      </c>
+      <c r="I103" t="n">
+        <v>38.17027795588233</v>
+      </c>
+      <c r="J103" t="n">
+        <v>36.20703125</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
